--- a/biology/Botanique/Cymodoceaceae/Cymodoceaceae.xlsx
+++ b/biology/Botanique/Cymodoceaceae/Cymodoceaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cymodoceaceae  sont une famille de plantes monocotylédones qui comprend moins de vingt espèces réparties en 4-5 genres.
-Ce sont des plantes herbacées aquatiques marines, pérennes, rhizomateuses des zones subtropicales à tropicales. Leur rhizome est rampant, herbacé et monopodial, ou ligneux et sympodial[1].
+Ce sont des plantes herbacées aquatiques marines, pérennes, rhizomateuses des zones subtropicales à tropicales. Leur rhizome est rampant, herbacé et monopodial, ou ligneux et sympodial.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vient du genre Cymodocea qui dérive du grec « Cymodocé » (divinité marine qui fait partie des Néréides), pour qualifier une plante qui vit dans la mer[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vient du genre Cymodocea qui dérive du grec « Cymodocé » (divinité marine qui fait partie des Néréides), pour qualifier une plante qui vit dans la mer.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010)[3], Angiosperm Phylogeny Website                        (16 mai 2010)[4] et NCBI  (15 avr. 2010)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010), Angiosperm Phylogeny Website                        (16 mai 2010) et NCBI  (15 avr. 2010) :
 genre Amphibolis C.Agardh (1822)
 genre Cymodocea K.D.Koenig (1806)
 genre Halodule Endl., Gen. Pl. (1841)
@@ -584,9 +600,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (16 mai 2010)[8] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (16 mai 2010) :
 genre Amphibolis
 Amphibolis antarctica
 genre Cymodocea
